--- a/fuentes/contenidos/grado10/guion06/SolicitudGrafica_LE_10_06_REC210.xlsx
+++ b/fuentes/contenidos/grado10/guion06/SolicitudGrafica_LE_10_06_REC210.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="194">
   <si>
     <t>Fecha:</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Grupo de lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujer española </t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1324,6 +1327,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1647,7 +1651,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1699,6 +1703,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2385,7 +2390,7 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
@@ -2762,32 +2767,40 @@
     <row r="12" spans="1:16" s="11" customFormat="1">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62">
+        <v>388566499</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>151</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_10_06_REC210_IMG03n.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>240 x 375 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_10_06_REC210_IMG03a.jpg</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="64"/>
+        <v>800 x 460 px</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
